--- a/Testdata/TC_25.xlsx
+++ b/Testdata/TC_25.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyV0ubUcWRhvwJoUoKQokVVl5KYa7I3Gq5S67MyuJbynQIkWaoigKp0iv6FOKAnWNNgFSu5f/Eliy+9S/0DOXvZFUzFUNwdo55zszZ86c24zQu9dz37gkEaNhsFep16yKQQI39GhwvleJ+Vm1/qjyroO61y7xj3CE54QD2ACpgO1eM7pXmXG+2DXNq6ur2lWjFkbnpm1ZdfPJoD92Z2SOqzRgHAcuqaRS3tulKg5qe/MB4djDHCvJvUpv3Ku1CXU7QBvgAJ+TqNaKGQ0IY92AU04JE5IRwZy0O4PvqI05du1RrY7MNXqGbMXU9xSugFR0jYNlyYTOiWNb9Z2qtVNtWJO6vWvv7NqN2o7deD8RTIGojxkfk+iSupIw5ni+kOLWTsOq2zZIIXMjCObKDOCgoe+NyCVlxGsT32elLGLqA2y6HHZdzpgWMnOyeqL7q3AQ4cVsQrlPyqkxGrSMeaB1ySZx0H4YERfsdy+VDsnVMNJmnSz6wJ3MaMSXHbwsPdcxI9FwIYxUTtRBnTDgTZ9E/HgBZ008cAVgODyKCTLvYGZCHcpc+KZBTDznDPssL1RgopMwumAL7JJDiGNTzHEV+CH2wOE4ZZy62aJrDHQUhQuYERZvhb63D7Nq8AZGOnMvABOLZVtheJFpt4mJ5KnK84UznWOewNfoaDwLr4aBvxzHU+ZGdEq8TitBb+QhEZBauh0zHs5Bi4yEFC1HWcI/CMBVMuoQl86xf+SDEZmIjSIBNWMenlHeDv14HrBEpxUqOoEdTch1usN0jIZwuIEwehj0ggSvzLyRVRQYhVfpmusMaYQcucnc5LjXGavgDtCS41vnyBMRu9ynPtSH/FnkqEWvGM8I4RtdQnGQSIX7ouI4reVhPJ9CeE0hxi7lqgyZGR+Bn4Kvg16OBVWkKn8mlrUrf0CPlI26gXc3LmEiWC63llMH3goJwZ78lo+DC6CeUD47bCZ72cBBygJ34td5CCJ34eOlJKdWytNQL3D92CMqIfSCM+miQjd1qHey0RqpDzHuIBwsJ8sF5GVGdzl87FWgUu8yHkEvUHHcMA54tBSZA5ka+jYZFk8DuQD2t5Y5i8j3Y2hBlvtx4LZDb/vVPGWd44Dy7TUM40ilw+1FpPVEZoxZh4gcI5P+1vJumT2xqBR8HpB5GFB3e2uDkYX23j02wpKo2lqCqPjaGu9DXVdlT8T61mIR9I9Q6Eot02QsdKl0Vh0eXk7evCNkOuQMxz70bhxK7Hmae1fJqMkuVjF5EjqO/CQDOqIzZtAau9685kLzINq/mhvOBcGEjvRkjMw8XnRALukG530cnMfQY6R5ZZWe5l9RHycRDpjYTtpSrKTizSCU5CnV6jgqeQ1j6QgqeYXAReYKDk3IfBFG2B+AYei+djvdL0ErMsB8pkdQ23ziJkY2M9FUqqhZovjbYLJIqW2IgNdpcoUoQWIvqgnPMBkNiV0OICz9NvbpNFJZNSnlm3hwYFlzmORfsbmSjWJyBnARg+r7bbIUHUg20HTpsvWEoRxYJFJnPHqwYz+0GjZ0NmKM5I5HBPtGF4KZE6MXXBLG5yC2a4wIox58UezvGu+RKaFQBKWJdBkqLZ2XQ/tJnpeqNEHfIqUIgH7jnEIZWQemnEzAOSU48pc5oNpqP3QBd/vjf9/85vmrF5/dfvT0zRc//O8/fvXqnz+7efYj+Lj9699uPv6l2qYCowme+kQqNGnt7FiNB+BnKQkJ45qyNfZil0va6ansiNMx0hc7OWh3e+2Dfkvmk5SYiKuSYoo74zKMs+FYbUIuJI/UTDxBQZxJkp/0uMDNlShH3OEuSRGd598lqGzx+uVnr1/++U5pbbCs16o/fvywWrff2orBbbi+hktbsX6hBgjwg6r1sGrbOfAKBo1UAUjt1POcRt16bNlw5U5zuZc68ibQKkvPNMHn5oqcIrVVe5S6QH6cMKXjTyBEUrYKhdxAu+gXP3nzl6cFlLauphRnAeVkGyMWM5OBnPpwNDHGw+NRu2tMumPhJxkvh1OTfw1Yr57GU8GpgiDG/rcMKO5QzIwK3IgqRnhmEOzOjCVEYi4OC862iaoWuueUq1oeRGG8UCeSE8ioG5BpNtkosSHXSJ6051rSyVgb4ErXm79/vklAb6STNbTp+0eehgocRcrxddR++q9XX3746sWL2+c/v/nyB4UZ9DrpswD4OURTfpi6PaQ8XW9WKOhkLI15YX03V180UVykjkIacObUH8k7lB4hEK2L2eRv1JtDyZMTS3sBfYWC3sOse811YDuHyCwSQM8FhmobZnfPlKByeGbX//z2d7e//vz2k+dvPvzTzUd/vPn4k9cvf//m2R9U1N0+fX7702c6y68WAqmLuNGqJtCQ7yOuIaLRELXb+OqDXxhByA1oOYxYZqSvPvg0N5lQVDYn2czQ0qWKFFVYg+aFhZyRUyXVoSCXiqgGoC1KWCNF6CIWLqibLfJ+VUwl4k4yvtGbVGNGjBC6qW/CTorgTHhbOS2iSurRO5ZdtzVXaSO2MMUsZ/oDP5xCk5Ew5APECqQg9fUCGVaud9Aftpr9DKKUGEYeiYQbqg+UtJSipPRYMkpcLUcBLjR+buyLN6M12DornTmXxkz9+HLW9ET62/xUUUCgdhxFqiEK9Fv+OF5AM5w80d3Nl8+Wuf73UPWq+Y44G/c6RT6Mc1wohEW2IEi+TE2apdJUj4l3HtXOHgrTZEPgFZ46wRz6uV51WpfQV0amyDvdKAqjjckn4ySwAXTSkFHMzOIpRp6p6rq97KwSQpLw0g9189M7DDvEJ7zcW7aZSQ/Cy3vLwtmXFe2xoe9pY5a7eqRmySbIP+gLR/l/3/OVszWjCBor8QBY+gE+ubiO4L5bUhu1FSkoboCwun4h36cR409EJtBfinKaUk5Vh/pEXLjUhxyfOo2HigAAMz+7WVAzCV2u/qwS+n06pyWvhVYS38VJwJaLhWrheuU8RZSWQ3INDWZuBkiK0+9B2VDvKGVmUw4LuTSVF2+XjJ7PeFnF3pli4pGpVXWnxK4+8Kyd6mNCGtV6Hf7Hrm1b1kPx8qknh8xByVXJRczkwLI/dzr/A5QeT1InHQAA</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE05fE2SSq9Mq3ZC2cOIodMtkXVO4uJ0Xa3aarOonfFgm0aFmEEJpFy1U8LUJiGMGutMxw+S+rSWZ44i9w6tI329lJh1Gk6TqXqlOnzuWrMnr3ZhoYVyRmNAp3a/aaVTNI6EU+Dc93awmf1O3N2rsu6t54JDjCMZ4SDsIGaIVs54bR3doF57Md07y+vl67Xl+L4nPTsSzbfHLQH3oXZIrrNGQchx6pZVr+27VqLmr70wPCsY85Vpq7td6wt9Ym1OsA7QCH+JzEa62E0ZAw1g055ZQwoRkTzEm7c/AdtTHXWdtcs5G5RM8lWwkNfCVXklR0LQfLkhGdEtexHKtubdWdjZFt7zQaO87mmvWO836qmAmiPmZ8SOIr6knCkOPpTKpbW86GbTcaziYyVwrBXLkDXDQI/GNyRRnx2yQIWCWPmPoAmx6HXVdzpoXMgq6e6PEm7Md4djGiPCBV1feimHjgqEetfUiuB7H232jWB+7ogsZ83sHzynOdMBIPZsIb1VRd1IlC3gxIzE9mcKjEhzMHhsvjhCDzHmau1KHMg28aJsR3JzhgRaUSE51G8SWbYY8cQsKaYo7rMIiwD5HFKePUyxddYqCjOJrBjLB4Kwr8PZhVC69gZDP3QnCxWLYVRZe5dauYSMaAjAY40ynmqfgSHQ0voutBGMyHyZh5MR0Tv9NKpVfykMg8rd1OGI+mYEVOQopWoMzhH2TaIhl1iEenODgKwIlMJEGZgJoJjyaUt6MgmYYstWmBik5hRyNyk+0wG6MBHG4onB6FvTCVV25eySorHEfX2ZrLDOmEArnJvPS4lxmLwh2gpce3zJEnIna5RwNoBMWzKFDLUTG8IISvDAnFQaLm7YnW4rbmh8l0DOk1hhy7kqsyZOZ8BHEKsQ52uRa0i7r8G1nWjvwDOzI26ob+/XIpE8FyhbVcG3gLJAR7CloBDi+Bekr5xWEz3csKDlIeuFd+mYcgc2cBnkty5qUiDfVCL0h8ogpCL5zIEBW2qUO9l42WSH3IcRfhcD6az6AAM7rD4WO3Bi15h/EYmn7N9aIk5PFcVA5katG36bBkHMoFcPBgnUlMvp8A1pjvJaHXjvyHr+Yr75yElD/cwiiJVTl8uIr0nqiMCesQUWNk0X+wvldlTyyuJD4NyTQKqfdwb4OThfX+IzbC0qx6sAZR+fVg+QD6ump7ItcfrBYDUIRGV2mZJmORR2Ww6vTwC/rmPSnTIROcBADSOLTY86z2LpJRk10uyhRJ6CQO0groCgjMAAN7/nTNA/AgcN6aF00FwQToeTpEZlFeICCPdMPzPg7PE8AYWV1ZpGf1V/THUYxDJraTQYqFUrxaCKV1SkEdVxWvQSIDQRWvCLjIXJBDIzKdRTEODsAxdE+HncZLAEUOML/QI+htAfFSJ5u5aqZVtiw1/G1iskmpbYiE12VygSiFxF4U2s5lchoSuzyAtAzaOKDjWFXVtJWv4sGB5eAwrb9icxWBYnoGcOOC7vttMhcIJB9ougxZO2WoABaF1B0eb2w5DWvdAWQjxkju+JjgwOhCMnNi9MIrwvgU1HaMY8KoD18UBzvGe2RMKDRB6SLdhiprF/XQXlrnpSlNsLdMKQsA3jin0EaWBTNOruCeERwH84Kg2mo/8kDu7sf/vv3N81cvPrv76OmbL37433/86tU/f3b77EfwcffXv91+/Eu1TSWMRngcEGnQqLW1Za1vQJxlJCSca0po7Ccel7SzM4mIszHSNzg5aHd77f1+S9aTjJiqq5ZiisvhPEry4VBtQi4kj9RMI0GJuKO0PulxiVtoUa64rF2RsnSRf5+i8sXrl5+9fvnne7W1w3KsZW9vN+q281Yo5li2vSSXQbF+qQcI4Y261ag7TkF4QQYdqwaQ+annu+u2tW0565ad1XI/C+RVQossPdMIn5sLeorUVvAoC4HiOGXKwB9BimRslQqFgQ7RL37y5i9PS1Lau5pSngWMkzBGLGamAzn14fHIGA5OjttdY9QdijjJeQU5NfnXCOvVs3wqBVUYJjj4lgHNHZqZUYMbUc2IJgbB3oUxh0ws5GEp2FZR1UKPnHLRyv04SmbqRAoKOXWFZFZNVmqsqDWSJ/25VHRy1gpxZevt3z9fpaA30skBrXt80DKmYRaXkoZKHEUq8HXWfvqvV19++OrFi7vnP7/98gelGfQ62bMAxDlkU3GYhT2UPN1vFijodCideWl9t9BfNFFcpI4iGnLm2pvyDqVHCFRtMZv8H/Wm0PLkxNJfQF+goPcw695wndjuITLLBLBzhqHbRvndMyOoGp779T+//d3drz+/++T5mw//dPvRH28//uT1y9+/efYHlXV3T5/f/fSZrvKLjUDaIm60CgQa8n3EM0Q2GqJ3G1998AsjjLgBkMNIZEX66oNPC5MJQyU4yWcGSJcZUjZhSbSoLPSMgimZDSW9TEUBgLZoYeuZhG5i0Yx6+SLv18VUIu8k4xu9UT1hxIgATX0TdlIWzpUfqqdVVEs9esdybEdzlTViC2PMCq7fD6IxgIyUIR8gFkRKWl+vkMvK9fb7g1azn4soIwaxT2IRhuoD9VgKKtPwKlCAC2DPSwLxTrQktsxC6VehdJn6wWXS9EXJW/08UZJA7SSOFQgK9UP9MJkBAE6f5e7ny6fKAuY9VPi0iILzca9T5sO4wIXmV2YLguTLcqRZqjT1mHjbURD2ULgmHwKv9LwJ7tBv8QpdXQGWjE1Ra7pxHMUrC07OScUOAD1DFTFzj2cyplhSIW0/P6uUkBa57EPd9vQOow4JCK/8UJ1qH0RXj9aFs6+q2mODwNfOrHbdyNyST1B8rReBUtWYZhwDbBLPe5Wf1/s0vOxV273rrE9s2yYbZNvD256HJxveNrG2SMNpjBsbWwAc5aTi9immEDcXcXertgiAxbJ6fs8+hpt3xdmUg6WiuIuCp2RC6sKejdEejRl/IkqU/lKUs4xypqDzE2Gf+pDjM3e9oQggYBYXM0tWp/WFqx92oqBPp7TifdVKi1B5EgiD2Uxhy6oHCj3vkNwA8i3MANV6/D3oZ+qBp8psKqugyGf66VzDZFx5OjNVPgK+CKzHaXd9wGWP15Y/k9Dg/zBAIq/HTtELGT2/4JUTdXt7nWwSp+5MPK++AYM6dONx3ceTbduyJut+wxEv2npy6A6UXFdcRPQUyuBeUV3PXPid2/0fcb4KJCAfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C63D61-ACA8-4479-9D75-0D0154B49D14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_25.xlsx
+++ b/Testdata/TC_25.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE05fE2SSq9Mq3ZC2cOIodMtkXVO4uJ0Xa3aarOonfFgm0aFmEEJpFy1U8LUJiGMGutMxw+S+rSWZ44i9w6tI329lJh1Gk6TqXqlOnzuWrMnr3ZhoYVyRmNAp3a/aaVTNI6EU+Dc93awmf1O3N2rsu6t54JDjCMZ4SDsIGaIVs54bR3doF57Md07y+vl67Xl+L4nPTsSzbfHLQH3oXZIrrNGQchx6pZVr+27VqLmr70wPCsY85Vpq7td6wt9Ym1OsA7QCH+JzEa62E0ZAw1g055ZQwoRkTzEm7c/AdtTHXWdtcs5G5RM8lWwkNfCVXklR0LQfLkhGdEtexHKtubdWdjZFt7zQaO87mmvWO836qmAmiPmZ8SOIr6knCkOPpTKpbW86GbTcaziYyVwrBXLkDXDQI/GNyRRnx2yQIWCWPmPoAmx6HXVdzpoXMgq6e6PEm7Md4djGiPCBV1feimHjgqEetfUiuB7H232jWB+7ogsZ83sHzynOdMBIPZsIb1VRd1IlC3gxIzE9mcKjEhzMHhsvjhCDzHmau1KHMg28aJsR3JzhgRaUSE51G8SWbYY8cQsKaYo7rMIiwD5HFKePUyxddYqCjOJrBjLB4Kwr8PZhVC69gZDP3QnCxWLYVRZe5dauYSMaAjAY40ynmqfgSHQ0voutBGMyHyZh5MR0Tv9NKpVfykMg8rd1OGI+mYEVOQopWoMzhH2TaIhl1iEenODgKwIlMJEGZgJoJjyaUt6MgmYYstWmBik5hRyNyk+0wG6MBHG4onB6FvTCVV25eySorHEfX2ZrLDOmEArnJvPS4lxmLwh2gpce3zJEnIna5RwNoBMWzKFDLUTG8IISvDAnFQaLm7YnW4rbmh8l0DOk1hhy7kqsyZOZ8BHEKsQ52uRa0i7r8G1nWjvwDOzI26ob+/XIpE8FyhbVcG3gLJAR7CloBDi+Bekr5xWEz3csKDlIeuFd+mYcgc2cBnkty5qUiDfVCL0h8ogpCL5zIEBW2qUO9l42WSH3IcRfhcD6az6AAM7rD4WO3Bi15h/EYmn7N9aIk5PFcVA5katG36bBkHMoFcPBgnUlMvp8A1pjvJaHXjvyHr+Yr75yElD/cwiiJVTl8uIr0nqiMCesQUWNk0X+wvldlTyyuJD4NyTQKqfdwb4OThfX+IzbC0qx6sAZR+fVg+QD6ump7ItcfrBYDUIRGV2mZJmORR2Ww6vTwC/rmPSnTIROcBADSOLTY86z2LpJRk10uyhRJ6CQO0groCgjMAAN7/nTNA/AgcN6aF00FwQToeTpEZlFeICCPdMPzPg7PE8AYWV1ZpGf1V/THUYxDJraTQYqFUrxaCKV1SkEdVxWvQSIDQRWvCLjIXJBDIzKdRTEODsAxdE+HncZLAEUOML/QI+htAfFSJ5u5aqZVtiw1/G1iskmpbYiE12VygSiFxF4U2s5lchoSuzyAtAzaOKDjWFXVtJWv4sGB5eAwrb9icxWBYnoGcOOC7vttMhcIJB9ougxZO2WoABaF1B0eb2w5DWvdAWQjxkju+JjgwOhCMnNi9MIrwvgU1HaMY8KoD18UBzvGe2RMKDRB6SLdhiprF/XQXlrnpSlNsLdMKQsA3jin0EaWBTNOruCeERwH84Kg2mo/8kDu7sf/vv3N81cvPrv76OmbL37433/86tU/f3b77EfwcffXv91+/Eu1TSWMRngcEGnQqLW1Za1vQJxlJCSca0po7Ccel7SzM4mIszHSNzg5aHd77f1+S9aTjJiqq5ZiisvhPEry4VBtQi4kj9RMI0GJuKO0PulxiVtoUa64rF2RsnSRf5+i8sXrl5+9fvnne7W1w3KsZW9vN+q281Yo5li2vSSXQbF+qQcI4Y261ag7TkF4QQYdqwaQ+annu+u2tW0565ad1XI/C+RVQossPdMIn5sLeorUVvAoC4HiOGXKwB9BimRslQqFgQ7RL37y5i9PS1Lau5pSngWMkzBGLGamAzn14fHIGA5OjttdY9QdijjJeQU5NfnXCOvVs3wqBVUYJjj4lgHNHZqZUYMbUc2IJgbB3oUxh0ws5GEp2FZR1UKPnHLRyv04SmbqRAoKOXWFZFZNVmqsqDWSJ/25VHRy1gpxZevt3z9fpaA30skBrXt80DKmYRaXkoZKHEUq8HXWfvqvV19++OrFi7vnP7/98gelGfQ62bMAxDlkU3GYhT2UPN1vFijodCideWl9t9BfNFFcpI4iGnLm2pvyDqVHCFRtMZv8H/Wm0PLkxNJfQF+goPcw695wndjuITLLBLBzhqHbRvndMyOoGp779T+//d3drz+/++T5mw//dPvRH28//uT1y9+/efYHlXV3T5/f/fSZrvKLjUDaIm60CgQa8n3EM0Q2GqJ3G1998AsjjLgBkMNIZEX66oNPC5MJQyU4yWcGSJcZUjZhSbSoLPSMgimZDSW9TEUBgLZoYeuZhG5i0Yx6+SLv18VUIu8k4xu9UT1hxIgATX0TdlIWzpUfqqdVVEs9esdybEdzlTViC2PMCq7fD6IxgIyUIR8gFkRKWl+vkMvK9fb7g1azn4soIwaxT2IRhuoD9VgKKtPwKlCAC2DPSwLxTrQktsxC6VehdJn6wWXS9EXJW/08UZJA7SSOFQgK9UP9MJkBAE6f5e7ny6fKAuY9VPi0iILzca9T5sO4wIXmV2YLguTLcqRZqjT1mHjbURD2ULgmHwKv9LwJ7tBv8QpdXQGWjE1Ra7pxHMUrC07OScUOAD1DFTFzj2cyplhSIW0/P6uUkBa57EPd9vQOow4JCK/8UJ1qH0RXj9aFs6+q2mODwNfOrHbdyNyST1B8rReBUtWYZhwDbBLPe5Wf1/s0vOxV273rrE9s2yYbZNvD256HJxveNrG2SMNpjBsbWwAc5aTi9immEDcXcXertgiAxbJ6fs8+hpt3xdmUg6WiuIuCp2RC6sKejdEejRl/IkqU/lKUs4xypqDzE2Gf+pDjM3e9oQggYBYXM0tWp/WFqx92oqBPp7TifdVKi1B5EgiD2Uxhy6oHCj3vkNwA8i3MANV6/D3oZ+qBp8psKqugyGf66VzDZFx5OjNVPgK+CKzHaXd9wGWP15Y/k9Dg/zBAIq/HTtELGT2/4JUTdXt7nWwSp+5MPK++AYM6dONx3ceTbduyJut+wxEv2npy6A6UXFdcRPQUyuBeUV3PXPid2/0fcb4KJCAfAAA=</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyV0ubUcWRhvwJoUoKQokVVl5KYa7I3Gq5S67MyuJbynQIkWaoigKp0iv6FOKAnWNNgFSu5f/Eliy+9S/0DOXvZFUzFUNwdo55zszZ86c24zQu9dz37gkEaNhsFep16yKQQI39GhwvleJ+Vm1/qjyroO61y7xj3CE54QD2ACpgO1eM7pXmXG+2DXNq6ur2lWjFkbnpm1ZdfPJoD92Z2SOqzRgHAcuqaRS3tulKg5qe/MB4djDHCvJvUpv3Ku1CXU7QBvgAJ+TqNaKGQ0IY92AU04JE5IRwZy0O4PvqI05du1RrY7MNXqGbMXU9xSugFR0jYNlyYTOiWNb9Z2qtVNtWJO6vWvv7NqN2o7deD8RTIGojxkfk+iSupIw5ni+kOLWTsOq2zZIIXMjCObKDOCgoe+NyCVlxGsT32elLGLqA2y6HHZdzpgWMnOyeqL7q3AQ4cVsQrlPyqkxGrSMeaB1ySZx0H4YERfsdy+VDsnVMNJmnSz6wJ3MaMSXHbwsPdcxI9FwIYxUTtRBnTDgTZ9E/HgBZ008cAVgODyKCTLvYGZCHcpc+KZBTDznDPssL1RgopMwumAL7JJDiGNTzHEV+CH2wOE4ZZy62aJrDHQUhQuYERZvhb63D7Nq8AZGOnMvABOLZVtheJFpt4mJ5KnK84UznWOewNfoaDwLr4aBvxzHU+ZGdEq8TitBb+QhEZBauh0zHs5Bi4yEFC1HWcI/CMBVMuoQl86xf+SDEZmIjSIBNWMenlHeDv14HrBEpxUqOoEdTch1usN0jIZwuIEwehj0ggSvzLyRVRQYhVfpmusMaYQcucnc5LjXGavgDtCS41vnyBMRu9ynPtSH/FnkqEWvGM8I4RtdQnGQSIX7ouI4reVhPJ9CeE0hxi7lqgyZGR+Bn4Kvg16OBVWkKn8mlrUrf0CPlI26gXc3LmEiWC63llMH3goJwZ78lo+DC6CeUD47bCZ72cBBygJ34td5CCJ34eOlJKdWytNQL3D92CMqIfSCM+miQjd1qHey0RqpDzHuIBwsJ8sF5GVGdzl87FWgUu8yHkEvUHHcMA54tBSZA5ka+jYZFk8DuQD2t5Y5i8j3Y2hBlvtx4LZDb/vVPGWd44Dy7TUM40ilw+1FpPVEZoxZh4gcI5P+1vJumT2xqBR8HpB5GFB3e2uDkYX23j02wpKo2lqCqPjaGu9DXVdlT8T61mIR9I9Q6Eot02QsdKl0Vh0eXk7evCNkOuQMxz70bhxK7Hmae1fJqMkuVjF5EjqO/CQDOqIzZtAau9685kLzINq/mhvOBcGEjvRkjMw8XnRALukG530cnMfQY6R5ZZWe5l9RHycRDpjYTtpSrKTizSCU5CnV6jgqeQ1j6QgqeYXAReYKDk3IfBFG2B+AYei+djvdL0ErMsB8pkdQ23ziJkY2M9FUqqhZovjbYLJIqW2IgNdpcoUoQWIvqgnPMBkNiV0OICz9NvbpNFJZNSnlm3hwYFlzmORfsbmSjWJyBnARg+r7bbIUHUg20HTpsvWEoRxYJFJnPHqwYz+0GjZ0NmKM5I5HBPtGF4KZE6MXXBLG5yC2a4wIox58UezvGu+RKaFQBKWJdBkqLZ2XQ/tJnpeqNEHfIqUIgH7jnEIZWQemnEzAOSU48pc5oNpqP3QBd/vjf9/85vmrF5/dfvT0zRc//O8/fvXqnz+7efYj+Lj9699uPv6l2qYCowme+kQqNGnt7FiNB+BnKQkJ45qyNfZil0va6ansiNMx0hc7OWh3e+2Dfkvmk5SYiKuSYoo74zKMs+FYbUIuJI/UTDxBQZxJkp/0uMDNlShH3OEuSRGd598lqGzx+uVnr1/++U5pbbCs16o/fvywWrff2orBbbi+hktbsX6hBgjwg6r1sGrbOfAKBo1UAUjt1POcRt16bNlw5U5zuZc68ibQKkvPNMHn5oqcIrVVe5S6QH6cMKXjTyBEUrYKhdxAu+gXP3nzl6cFlLauphRnAeVkGyMWM5OBnPpwNDHGw+NRu2tMumPhJxkvh1OTfw1Yr57GU8GpgiDG/rcMKO5QzIwK3IgqRnhmEOzOjCVEYi4OC862iaoWuueUq1oeRGG8UCeSE8ioG5BpNtkosSHXSJ6051rSyVgb4ErXm79/vklAb6STNbTp+0eehgocRcrxddR++q9XX3746sWL2+c/v/nyB4UZ9DrpswD4OURTfpi6PaQ8XW9WKOhkLI15YX03V180UVykjkIacObUH8k7lB4hEK2L2eRv1JtDyZMTS3sBfYWC3sOse811YDuHyCwSQM8FhmobZnfPlKByeGbX//z2d7e//vz2k+dvPvzTzUd/vPn4k9cvf//m2R9U1N0+fX7702c6y68WAqmLuNGqJtCQ7yOuIaLRELXb+OqDXxhByA1oOYxYZqSvPvg0N5lQVDYn2czQ0qWKFFVYg+aFhZyRUyXVoSCXiqgGoC1KWCNF6CIWLqibLfJ+VUwl4k4yvtGbVGNGjBC6qW/CTorgTHhbOS2iSurRO5ZdtzVXaSO2MMUsZ/oDP5xCk5Ew5APECqQg9fUCGVaud9Aftpr9DKKUGEYeiYQbqg+UtJSipPRYMkpcLUcBLjR+buyLN6M12DornTmXxkz9+HLW9ET62/xUUUCgdhxFqiEK9Fv+OF5AM5w80d3Nl8+Wuf73UPWq+Y44G/c6RT6Mc1wohEW2IEi+TE2apdJUj4l3HtXOHgrTZEPgFZ46wRz6uV51WpfQV0amyDvdKAqjjckn4ySwAXTSkFHMzOIpRp6p6rq97KwSQpLw0g9189M7DDvEJ7zcW7aZSQ/Cy3vLwtmXFe2xoe9pY5a7eqRmySbIP+gLR/l/3/OVszWjCBor8QBY+gE+ubiO4L5bUhu1FSkoboCwun4h36cR409EJtBfinKaUk5Vh/pEXLjUhxyfOo2HigAAMz+7WVAzCV2u/qwS+n06pyWvhVYS38VJwJaLhWrheuU8RZSWQ3INDWZuBkiK0+9B2VDvKGVmUw4LuTSVF2+XjJ7PeFnF3pli4pGpVXWnxK4+8Kyd6mNCGtV6Hf7Hrm1b1kPx8qknh8xByVXJRczkwLI/dzr/A5QeT1InHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="###0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C63D61-ACA8-4479-9D75-0D0154B49D14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>